--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Desktop\Personal\Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ADEBEF-9181-4ED2-B674-0314B4FB015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1447C-D16B-4BA2-B612-D762CC263F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="705" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
+    <workbookView xWindow="330" yWindow="1965" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
   <sheets>
     <sheet name="DashboardData" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +569,9 @@
       <c r="C2">
         <v>400</v>
       </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C1447C-D16B-4BA2-B612-D762CC263F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0712AA-4A79-49BD-82AD-A279A7652BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="1965" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +583,9 @@
       <c r="C3">
         <v>700</v>
       </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0712AA-4A79-49BD-82AD-A279A7652BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EC723-3B62-4BD4-B65F-582F9C14832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="1965" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +597,9 @@
       <c r="C4">
         <v>100</v>
       </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EC723-3B62-4BD4-B65F-582F9C14832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC6834-F097-498C-9748-037E5D624703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="1965" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +611,9 @@
       <c r="C5">
         <v>250</v>
       </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC6834-F097-498C-9748-037E5D624703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D868A96-6552-411D-BDEA-15F72FE2C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="1965" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>700</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D868A96-6552-411D-BDEA-15F72FE2C34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA8D43-388A-4A22-B4CC-4E2804295E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1965" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
   <sheets>
     <sheet name="DashboardData" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,9 +569,6 @@
       <c r="C2">
         <v>400</v>
       </c>
-      <c r="D2">
-        <v>350</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -583,9 +580,6 @@
       <c r="C3">
         <v>700</v>
       </c>
-      <c r="D3">
-        <v>450</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -597,9 +591,6 @@
       <c r="C4">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -610,9 +601,6 @@
       </c>
       <c r="C5">
         <v>250</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA8D43-388A-4A22-B4CC-4E2804295E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31DE59-5599-4882-BBBE-47E84D60A908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
+    <workbookView xWindow="1500" yWindow="1755" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
   <sheets>
     <sheet name="DashboardData" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2355A9-C362-481E-B033-6E5B5FBA4AB6}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +569,9 @@
       <c r="C2">
         <v>400</v>
       </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -580,6 +583,9 @@
       <c r="C3">
         <v>700</v>
       </c>
+      <c r="D3">
+        <v>800</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -624,6 +630,9 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -690,6 +699,9 @@
       <c r="C13">
         <v>250</v>
       </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -701,6 +713,9 @@
       <c r="C14">
         <v>150</v>
       </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -724,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -734,8 +749,11 @@
       <c r="C17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -745,8 +763,11 @@
       <c r="C18">
         <v>57.96</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -756,8 +777,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -767,8 +791,11 @@
       <c r="C20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -778,8 +805,11 @@
       <c r="C21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -790,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -801,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -811,8 +841,11 @@
       <c r="C24">
         <v>250</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -822,8 +855,11 @@
       <c r="C25">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -834,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -845,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -856,7 +892,7 @@
         <v>86.51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E31DE59-5599-4882-BBBE-47E84D60A908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD990C4B-E170-4C1D-A234-460DCD3B253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1755" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2355A9-C362-481E-B033-6E5B5FBA4AB6}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/Budget.xlsx
+++ b/Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncatanzariti.RAINBOWBALLOONS\Documents\GitHub\budget-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD990C4B-E170-4C1D-A234-460DCD3B253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09588DF-99F9-4231-AA4D-EB8352CCE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1755" windowWidth="24990" windowHeight="11295" xr2:uid="{ED60F808-6A34-4D33-BE08-40A76DB997BB}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,9 +569,6 @@
       <c r="C2">
         <v>400</v>
       </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -583,9 +580,6 @@
       <c r="C3">
         <v>700</v>
       </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -630,9 +624,6 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -699,9 +690,6 @@
       <c r="C13">
         <v>250</v>
       </c>
-      <c r="D13">
-        <v>75</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -713,9 +701,6 @@
       <c r="C14">
         <v>150</v>
       </c>
-      <c r="D14">
-        <v>60</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -739,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -749,11 +734,8 @@
       <c r="C17">
         <v>100</v>
       </c>
-      <c r="D17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -763,11 +745,8 @@
       <c r="C18">
         <v>57.96</v>
       </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -777,11 +756,8 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -791,11 +767,8 @@
       <c r="C20">
         <v>100</v>
       </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -805,11 +778,8 @@
       <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -820,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -831,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -841,11 +811,8 @@
       <c r="C24">
         <v>250</v>
       </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -855,11 +822,8 @@
       <c r="C25">
         <v>65</v>
       </c>
-      <c r="D25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -870,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -881,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -892,7 +856,7 @@
         <v>86.51</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
